--- a/ShinyDashboard/results/biomAccuracyTable.xlsx
+++ b/ShinyDashboard/results/biomAccuracyTable.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\MAYNOOTH\Subjects\Thesis\GitHub\Brazilian_vegetation_prediction\ShinyDashboard\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47398F31-4ADB-4B99-B98D-6B022DB55CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AE3C0A-5CD3-437B-94F7-5FBE81459493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F9B35322-2A14-47D8-A59C-6F979BE37645}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{F9B35322-2A14-47D8-A59C-6F979BE37645}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>colnames.y_test.</t>
   </si>
@@ -261,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -293,6 +294,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F2F392-3340-481F-A044-21642BBB3A1A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1420,4 +1431,573 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EC768C-0268-462E-8C2F-7BDFA875F9FE}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.79536680000000004</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.66795369999999998</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.76061780000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.89189189999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.89575289999999996</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.88030889999999995</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.67181469999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.65637069999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.66795369999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.81467179999999995</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.90733589999999997</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.78378380000000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.80694980000000005</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.91505789999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.82239379999999995</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.71814670000000003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.75675680000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.70656370000000002</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.71814670000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.64864860000000002</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.70270270000000001</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6872587</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.4942085</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.61003859999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.67181469999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.51351349999999996</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.61003859999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.6293436</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.46332050000000002</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.57915059999999996</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.67953669999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.6216216</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.6911197</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.66409269999999998</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.56756759999999995</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.65637069999999997</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.73745170000000004</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.50579149999999995</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.6254826</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.6911197</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.49034749999999999</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.6254826</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.74131270000000005</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.74517370000000005</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.66409269999999998</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.6911197</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.71428570000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.63706560000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.71428570000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.52123549999999996</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.6833977</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.76833980000000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.81081080000000005</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.72200770000000003</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.74131270000000005</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.54826249999999999</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.74903470000000005</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.88416989999999995</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.74131270000000005</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.85714290000000004</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.73590730000000004</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.65926640000000003</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.70173750000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>